--- a/CRISPR_design/prkd2_CRISPR_primers.xlsx
+++ b/CRISPR_design/prkd2_CRISPR_primers.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmdb/Farber_Rotation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mckennafeltes/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B91B86A-DC06-1342-8B0F-11F55C57B72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1435ABC1-BFD8-7540-B299-4F5A2A66C167}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{A42867CA-70F8-C844-867A-76854FF11A7B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="1" xr2:uid="{A42867CA-70F8-C844-867A-76854FF11A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913" iterateCount="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
   <si>
     <t>Target</t>
   </si>
@@ -118,13 +119,112 @@
   </si>
   <si>
     <t>Lots of off targets, but don't have a choice. Primers are good</t>
+  </si>
+  <si>
+    <t>SF-JD-001</t>
+  </si>
+  <si>
+    <t>SF-JD-002</t>
+  </si>
+  <si>
+    <t>SF-JD-003</t>
+  </si>
+  <si>
+    <t>SF-JD-004</t>
+  </si>
+  <si>
+    <t>SF-JD-005</t>
+  </si>
+  <si>
+    <t>SF-JD-006</t>
+  </si>
+  <si>
+    <t>SF-JD-007</t>
+  </si>
+  <si>
+    <t>SF-JD-008</t>
+  </si>
+  <si>
+    <t>SF-JD-009</t>
+  </si>
+  <si>
+    <t>SF-JD-010</t>
+  </si>
+  <si>
+    <t>SF-JD-011</t>
+  </si>
+  <si>
+    <t>SF-JD-012</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>Oligo name</t>
+  </si>
+  <si>
+    <t>WG-FWD gRNA</t>
+  </si>
+  <si>
+    <t>WG-REV gRNA</t>
+  </si>
+  <si>
+    <t>PH-REV gRNA</t>
+  </si>
+  <si>
+    <t>Kinase gRNA</t>
+  </si>
+  <si>
+    <t>KinaseF-FWD gRNA</t>
+  </si>
+  <si>
+    <t>KinaseF-REV gRNA</t>
+  </si>
+  <si>
+    <t>PH-FWD gRNA</t>
+  </si>
+  <si>
+    <t>WG-FWD primer</t>
+  </si>
+  <si>
+    <t>WG-REV primer</t>
+  </si>
+  <si>
+    <t>PH-FWD primer</t>
+  </si>
+  <si>
+    <t>PH-REV primer</t>
+  </si>
+  <si>
+    <t>SF-JD-013</t>
+  </si>
+  <si>
+    <t>SF-JD-014</t>
+  </si>
+  <si>
+    <t>SF-JD-015</t>
+  </si>
+  <si>
+    <t>Kinase-REV primer</t>
+  </si>
+  <si>
+    <t>Kinase-FWD primer</t>
+  </si>
+  <si>
+    <t>KinaseF-FWD primer</t>
+  </si>
+  <si>
+    <t>KinaseF-REV primer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,6 +253,14 @@
     <font>
       <sz val="12"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -214,6 +322,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF3C770-2BB1-984A-AF7D-7BC95E5EABDB}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -674,4 +784,200 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6413363-B0E2-E747-B739-9806993636FB}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="62.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>